--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st02.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Accompanying May is Natalya, another member of the Ursus Student Self-government Group.
+    <t xml:space="preserve">Accompanying May is Natalya, another member of the Ursus Student Self-Governing Group.
 </t>
   </si>
   <si>
